--- a/Hardware/Main Board/BOM LCSC.xlsx
+++ b/Hardware/Main Board/BOM LCSC.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma-Board\Hardware\Dring Heath Small\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma Board\Hardware\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574B72E-ED31-4201-8B71-0656729F8B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF0FA4-8E4E-4FF2-B147-8B9EBA0814FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15990" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
+    <workbookView xWindow="2610" yWindow="8775" windowWidth="35940" windowHeight="25485" activeTab="2" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectors" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
-    <sheet name="Torch Module" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Torch Module" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOM!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$H$43</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Connectors!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Torch Module'!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Torch Module'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="432">
   <si>
     <t>Package</t>
   </si>
@@ -120,30 +123,15 @@
     <t>3.3v</t>
   </si>
   <si>
-    <t>J1,J4</t>
-  </si>
-  <si>
-    <t>PinSocket_1x12_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Module 1</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>PinHeader_1x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>Jumper</t>
   </si>
   <si>
     <t>J3</t>
   </si>
   <si>
-    <t>Motor</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
@@ -168,51 +156,6 @@
     <t>THC_Display</t>
   </si>
   <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>Module 2</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>VMot</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>Module 3</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>JTAG</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>Shift Regs and Motor Drvs</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Module 4</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>Module 5</t>
-  </si>
-  <si>
     <t>J15</t>
   </si>
   <si>
@@ -222,21 +165,6 @@
     <t>Micro_SD_Card</t>
   </si>
   <si>
-    <t>J16,J17,J18,J19,J20,J21</t>
-  </si>
-  <si>
-    <t>JP1,JP3,JP4</t>
-  </si>
-  <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>JP2</t>
-  </si>
-  <si>
-    <t>MS2</t>
-  </si>
-  <si>
     <t>L1,L2</t>
   </si>
   <si>
@@ -246,15 +174,6 @@
     <t>22uh</t>
   </si>
   <si>
-    <t>PS1,PS2</t>
-  </si>
-  <si>
-    <t>Buck_Module</t>
-  </si>
-  <si>
-    <t>DC-DC_BuckAdg</t>
-  </si>
-  <si>
     <t>R16,R17,R18,R19</t>
   </si>
   <si>
@@ -303,45 +222,9 @@
     <t>74AHCT595</t>
   </si>
   <si>
-    <t>U9</t>
-  </si>
-  <si>
     <t>ClearpathDriver</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -465,9 +348,6 @@
     <t>19-217/GHC-YR1S2/3T</t>
   </si>
   <si>
-    <t>C72041</t>
-  </si>
-  <si>
     <t>19-217/BHC-ZL1M2RY/3T</t>
   </si>
   <si>
@@ -552,39 +432,12 @@
     <t>DM3AT-SF-PEJM5</t>
   </si>
   <si>
-    <t>C350303</t>
-  </si>
-  <si>
-    <t>2685Y-112CNG1SNA01</t>
-  </si>
-  <si>
-    <t>C124411</t>
-  </si>
-  <si>
-    <t>2 socket</t>
-  </si>
-  <si>
-    <t>8 socket</t>
-  </si>
-  <si>
-    <t>C390693</t>
-  </si>
-  <si>
-    <t>510-80-10GB43</t>
-  </si>
-  <si>
     <t>C124418</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Pcb  needs changing to 2.54</t>
-  </si>
-  <si>
-    <t>PinHeader_2x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>RJ-45 Horizontal</t>
   </si>
   <si>
@@ -594,9 +447,6 @@
     <t>RJHSE5380</t>
   </si>
   <si>
-    <t>2x05 pin header</t>
-  </si>
-  <si>
     <t>C239356</t>
   </si>
   <si>
@@ -621,15 +471,6 @@
     <t>C100114</t>
   </si>
   <si>
-    <t>Motor conn</t>
-  </si>
-  <si>
-    <t>C124387</t>
-  </si>
-  <si>
-    <t>C27438</t>
-  </si>
-  <si>
     <t>Order of Operation</t>
   </si>
   <si>
@@ -1078,6 +919,438 @@
   </si>
   <si>
     <t>from ESP32 reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C9</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric_Pad1.08x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1912111437_Murata-Electronics-GRM188R61E106KA73D_C344022.pdf</t>
+  </si>
+  <si>
+    <t>&gt;  C1, C2, C5-C7, C10-C13, C15, C17, C19, C21, C23, C25</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1811151223_Walsin-Tech-Corp-0603B104M250CT_C107569.pdf</t>
+  </si>
+  <si>
+    <t>&gt;  C3, C4, C14, C16, C18, C20, C22, C24</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_10x12.6</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1810181625_Lelon-OCV331M1DTR-1013_C250026.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D1</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D2</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/2008201032_Foshan-NationStar-Optoelectronics-NCD0603R1_C84263.pdf</t>
+  </si>
+  <si>
+    <t>C84263</t>
+  </si>
+  <si>
+    <t>NCD0603R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J7</t>
+  </si>
+  <si>
+    <t>TerminalBlock_4Ucon:TerminalBlock_4Ucon_1x02_P3.50mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1912111437_JILN-JL124D-35002G01_C415432.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J16</t>
+  </si>
+  <si>
+    <t>Connector_Card:microSD_HC_Hirose_DM3AT-SF-PEJM5</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1810301220_HRS-Hirose-DM3AT-SF-PEJM5_C114218.pdf</t>
+  </si>
+  <si>
+    <t>&gt;  L1, L2</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_Coilcraft_XAL5030</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/2003132108_GLE-GCNR4030-220MC_C439349.pdf</t>
+  </si>
+  <si>
+    <t>&gt;  R5-R8</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>C144081</t>
+  </si>
+  <si>
+    <t>&gt;  R1-R4, R9-R12</t>
+  </si>
+  <si>
+    <t>C22548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U2</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-16_3.9x9.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/2007301835_XINLUDA-XL74LS157_C707097.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U4</t>
+  </si>
+  <si>
+    <t>BL8071CLATR33</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-223</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21373C.pdf</t>
+  </si>
+  <si>
+    <t>C401677</t>
+  </si>
+  <si>
+    <t>&gt;  U5-U8</t>
+  </si>
+  <si>
+    <t>Package_SO:SO-16_5.3x10.2mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/2004031110_Nexperia-74AHCT595D-118_C503428.pdf</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Main Board</t>
+  </si>
+  <si>
+    <t>C492399</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>2x5</t>
+  </si>
+  <si>
+    <t>1x2</t>
+  </si>
+  <si>
+    <t>1x8</t>
+  </si>
+  <si>
+    <t>1x12</t>
+  </si>
+  <si>
+    <t>C541849</t>
+  </si>
+  <si>
+    <t>C124416</t>
+  </si>
+  <si>
+    <t>C225509</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>2x5 ra pin</t>
+  </si>
+  <si>
+    <t>C239336</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B104KB8NNNC_C1591.html</t>
+  </si>
+  <si>
+    <t>C1591</t>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>C2588</t>
+  </si>
+  <si>
+    <t>IRLML2402TRPBF</t>
+  </si>
+  <si>
+    <t>22nf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/Samsung-Electro-Mechanics-CL10B223KB8NNNC_C21122.pdf</t>
+  </si>
+  <si>
+    <t>C21122</t>
+  </si>
+  <si>
+    <t>CL10B223KB8NNNC</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/Samsung-Electro-Mechanics-CL10B105KA8NNNC_C29936.pdf</t>
+  </si>
+  <si>
+    <t>C29936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL10B105KA8NNNC </t>
+  </si>
+  <si>
+    <t>ADS1115IDGS</t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-10_3x3mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/ads1113.pdf</t>
+  </si>
+  <si>
+    <t>C37593</t>
+  </si>
+  <si>
+    <t>ADS1115IDGSR</t>
+  </si>
+  <si>
+    <t>BLM18HE152SN1D</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1810311111_Murata-Electronics-BLM18HE152SN1D_C82155.pdf</t>
+  </si>
+  <si>
+    <t>C82155</t>
+  </si>
+  <si>
+    <t>Package_SO:SO-16_3.9x9.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/uln2003a.pdf</t>
+  </si>
+  <si>
+    <t>C91899</t>
+  </si>
+  <si>
+    <t>ULN2002D1013TR</t>
+  </si>
+  <si>
+    <t>C125933</t>
+  </si>
+  <si>
+    <t>AC0603FR-072KL</t>
+  </si>
+  <si>
+    <t>C125935</t>
+  </si>
+  <si>
+    <t>AC0603FR-07200RL</t>
+  </si>
+  <si>
+    <t>8P8C_LED_Shielded</t>
+  </si>
+  <si>
+    <t>Connector_RJ:RJ45_Amphenol_RJHSE538X</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1811141123_Ckmtw-Shenzhen-Cankemeng-C133529_C133529.pdf</t>
+  </si>
+  <si>
+    <t>C133529</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>AF0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t>C144661</t>
+  </si>
+  <si>
+    <t>AC0603FR-073K3L</t>
+  </si>
+  <si>
+    <t>2.4K</t>
+  </si>
+  <si>
+    <t>C144674</t>
+  </si>
+  <si>
+    <t>AC0603FR-072K4L</t>
+  </si>
+  <si>
+    <t>RJHSE-3380:RJHSE3384</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1811141123_Shanghai-YDS-Tech-51F-1210GY2D2NL_C179768.pdf</t>
+  </si>
+  <si>
+    <t>C179768</t>
+  </si>
+  <si>
+    <t>51F-1210GY2D2NL</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1810010231_ZOWIE-Tech-MSCD104H_C189958.pdf</t>
+  </si>
+  <si>
+    <t>NCV8114ASN150T1G</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:TSOT-23-5</t>
+  </si>
+  <si>
+    <t>https://ru.mouser.com/datasheet/2/308/NCV8114-D-1107616.pdf</t>
+  </si>
+  <si>
+    <t>C256532</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/szlcsc/1909061434_SLKORMICRO-Elec-SM4007PL-A7_C426570.pdf</t>
+  </si>
+  <si>
+    <t>Relay_THT:Relay_SPDT_Omron_G6E</t>
+  </si>
+  <si>
+    <t>https://www.omron.com/ecb/products/pdf/en-g6e.pdf</t>
+  </si>
+  <si>
+    <t>C1, C7</t>
+  </si>
+  <si>
+    <t>Q1-Q5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R2, R13, R14, R30, R32, R33, R40, R41</t>
+  </si>
+  <si>
+    <t>C2, C4-C6, C8</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>FB1, FB2</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R6-R8, R10, R18, R20, R22-R29, R38, R39</t>
+  </si>
+  <si>
+    <t>R4, R5, R9, R15-R17, R19, R21</t>
+  </si>
+  <si>
+    <t>R1, R3, R11, R12</t>
+  </si>
+  <si>
+    <t>R34-R37</t>
+  </si>
+  <si>
+    <t>J1, J8</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>C191383</t>
+  </si>
+  <si>
+    <t>AIRRIDE</t>
+  </si>
+  <si>
+    <t>Optocoupler</t>
   </si>
 </sst>
 </file>
@@ -1323,6 +1596,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1339,7 +1613,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2444,15 +2717,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{716ADE6A-35CE-4E4C-B219-B1B1F4F9A75F}" name="Table1" displayName="Table1" ref="I4:N80" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Neutral" dataCellStyle="Neutral">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{716ADE6A-35CE-4E4C-B219-B1B1F4F9A75F}" name="Table1" displayName="Table1" ref="I4:N80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="Neutral" dataCellStyle="Neutral">
   <autoFilter ref="I4:N80" xr:uid="{6121EDE4-EC13-44B8-ADB0-EBB42A872E42}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{301FA929-2DD3-4704-BD79-3DF2D7C2A791}" name="Connectors" dataDxfId="7" dataCellStyle="Neutral"/>
-    <tableColumn id="2" xr3:uid="{4AA82F2C-AE4C-41B2-8133-3C4AD65E22E5}" name="pins" dataDxfId="6" dataCellStyle="Neutral"/>
-    <tableColumn id="3" xr3:uid="{0AFD8132-CDB4-4DA3-AD7E-ECD258B75885}" name="Signal" dataDxfId="5" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{C6F9D00A-3E2B-48F6-A3C8-25665E4C15D3}" name="Jumper" dataDxfId="4" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{64BEA954-5FD2-4A22-B817-BA37E0208C5F}" name="GBRL" dataDxfId="3" dataCellStyle="Neutral"/>
-    <tableColumn id="6" xr3:uid="{607FAAB1-E8A3-40CB-B205-7E92FF82AA41}" name="TCH" dataDxfId="2" dataCellStyle="Neutral"/>
+    <tableColumn id="1" xr3:uid="{301FA929-2DD3-4704-BD79-3DF2D7C2A791}" name="Connectors" dataDxfId="5" dataCellStyle="Neutral"/>
+    <tableColumn id="2" xr3:uid="{4AA82F2C-AE4C-41B2-8133-3C4AD65E22E5}" name="pins" dataDxfId="4" dataCellStyle="Neutral"/>
+    <tableColumn id="3" xr3:uid="{0AFD8132-CDB4-4DA3-AD7E-ECD258B75885}" name="Signal" dataDxfId="3" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{C6F9D00A-3E2B-48F6-A3C8-25665E4C15D3}" name="Jumper" dataDxfId="2" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{64BEA954-5FD2-4A22-B817-BA37E0208C5F}" name="GBRL" dataDxfId="1" dataCellStyle="Neutral"/>
+    <tableColumn id="6" xr3:uid="{607FAAB1-E8A3-40CB-B205-7E92FF82AA41}" name="TCH" dataDxfId="0" dataCellStyle="Neutral"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2757,7 +3030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C39F3-7594-4535-810B-0496FC455A11}">
   <dimension ref="B1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
@@ -2808,37 +3081,37 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -2853,10 +3126,10 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="19"/>
@@ -2867,7 +3140,7 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="20">
@@ -2883,26 +3156,26 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="D8">
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="20">
         <v>2</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -2911,14 +3184,14 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="20">
         <v>3</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -2927,10 +3200,10 @@
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -2939,14 +3212,14 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="20">
         <v>4</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
@@ -2955,91 +3228,91 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="J11" s="20">
         <v>5</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="E12">
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="J12" s="20">
         <v>6</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="O12" s="17"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="20">
@@ -3049,29 +3322,29 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="E14">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="20">
         <v>8</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
@@ -3080,42 +3353,42 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="E15">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="J16" s="20">
         <v>1</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="20">
@@ -3126,14 +3399,14 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="20">
         <v>2</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="20">
@@ -3144,14 +3417,14 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="20">
         <v>3</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="20">
@@ -3162,20 +3435,20 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="E19">
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="20">
         <v>4</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="20">
@@ -3186,13 +3459,13 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="20">
@@ -3206,7 +3479,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="20">
@@ -3220,7 +3493,7 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="20">
@@ -3238,16 +3511,16 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="J23" s="20">
         <v>8</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="20">
@@ -3267,13 +3540,13 @@
     </row>
     <row r="25" spans="2:15">
       <c r="I25" s="19" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J25" s="20">
         <v>1</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -3299,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -3312,14 +3585,14 @@
         <v>4</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="O28" s="17"/>
     </row>
@@ -3331,7 +3604,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="N29" s="19"/>
       <c r="O29" s="17"/>
@@ -3344,14 +3617,14 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15">
       <c r="I31" s="19" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="J31" s="20">
         <v>7</v>
@@ -3359,7 +3632,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="N31" s="19"/>
       <c r="O31" s="17"/>
@@ -3370,12 +3643,12 @@
         <v>8</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="O32" s="17"/>
     </row>
@@ -3385,14 +3658,14 @@
         <v>9</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="O33" s="17"/>
     </row>
@@ -3402,12 +3675,12 @@
         <v>10</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="O34" s="17"/>
     </row>
@@ -3417,12 +3690,12 @@
         <v>11</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="O35" s="17"/>
     </row>
@@ -3432,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
@@ -3459,7 +3732,7 @@
     </row>
     <row r="39" spans="9:15">
       <c r="I39" s="21" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="J39" s="22">
         <v>1</v>
@@ -3478,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
@@ -3504,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
@@ -3530,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
@@ -3556,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
@@ -3569,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
@@ -3582,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
@@ -3600,7 +3873,7 @@
     </row>
     <row r="50" spans="9:15">
       <c r="I50" s="23" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="J50" s="24">
         <v>1</v>
@@ -3619,10 +3892,10 @@
         <v>2</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
@@ -3647,10 +3920,10 @@
         <v>6</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
@@ -3659,10 +3932,10 @@
     <row r="54" spans="9:15">
       <c r="I54" s="23"/>
       <c r="J54" s="24" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
@@ -3680,13 +3953,13 @@
     </row>
     <row r="56" spans="9:15">
       <c r="I56" s="23" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J56" s="24">
         <v>1</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
@@ -3712,7 +3985,7 @@
         <v>6</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
@@ -3725,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
@@ -3738,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
@@ -3756,13 +4029,13 @@
     </row>
     <row r="62" spans="9:15">
       <c r="I62" s="25" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="J62" s="26">
         <v>1</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -3775,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -3788,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -3804,7 +4077,7 @@
         <v>4</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
@@ -3817,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
@@ -3830,7 +4103,7 @@
         <v>6</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
@@ -3843,7 +4116,7 @@
         <v>7</v>
       </c>
       <c r="K68" s="25" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -3856,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="K69" s="25" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
@@ -3874,7 +4147,7 @@
     </row>
     <row r="71" spans="2:15">
       <c r="I71" s="25" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J71" s="26">
         <v>1</v>
@@ -3883,7 +4156,7 @@
         <v>21</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="M71" s="25"/>
       <c r="N71" s="25"/>
@@ -3895,10 +4168,10 @@
         <v>2</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="L72" s="25" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="M72" s="25"/>
       <c r="N72" s="25"/>
@@ -3910,10 +4183,10 @@
         <v>3</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="L73" s="25" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
@@ -3925,10 +4198,10 @@
         <v>4</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="M74" s="25"/>
       <c r="N74" s="25"/>
@@ -3940,10 +4213,10 @@
         <v>5</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
@@ -3955,10 +4228,10 @@
         <v>6</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="L76" s="25" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="M76" s="25"/>
       <c r="N76" s="25"/>
@@ -3970,10 +4243,10 @@
         <v>8</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="L77" s="25" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="M77" s="25"/>
       <c r="N77" s="25"/>
@@ -3985,10 +4258,10 @@
         <v>9</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
@@ -3996,16 +4269,16 @@
     </row>
     <row r="79" spans="2:15">
       <c r="I79" s="17" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="J79" s="18">
         <v>1</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
@@ -4017,10 +4290,10 @@
         <v>2</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -4028,13 +4301,13 @@
     </row>
     <row r="81" spans="9:15">
       <c r="I81" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="J81" s="15">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="O81" s="17"/>
     </row>
@@ -4043,12 +4316,12 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="9:15">
       <c r="I85" s="27" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="J85" s="28">
         <v>1</v>
@@ -4057,12 +4330,12 @@
       <c r="L85" s="27"/>
       <c r="M85" s="27"/>
       <c r="N85" s="27" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="9:15">
       <c r="I86" s="27" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="J86" s="28">
         <v>2</v>
@@ -4083,7 +4356,7 @@
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
       <c r="N87" s="29" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="9:15">
@@ -4092,12 +4365,12 @@
         <v>4</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="L88" s="29"/>
       <c r="M88" s="29"/>
       <c r="N88" s="27" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="9:15">
@@ -4106,12 +4379,12 @@
         <v>5</v>
       </c>
       <c r="K89" s="29" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
       <c r="N89" s="27" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="9:15">
@@ -4120,12 +4393,12 @@
         <v>6</v>
       </c>
       <c r="K90" s="29" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="L90" s="29"/>
       <c r="M90" s="29"/>
       <c r="N90" s="27" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="9:15">
@@ -4134,12 +4407,12 @@
         <v>7</v>
       </c>
       <c r="K91" s="29" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="L91" s="29"/>
       <c r="M91" s="29"/>
       <c r="N91" s="27" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="9:15">
@@ -4148,12 +4421,12 @@
         <v>8</v>
       </c>
       <c r="K92" s="29" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="L92" s="29"/>
       <c r="M92" s="29"/>
       <c r="N92" s="27" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="9:15">
@@ -4162,12 +4435,12 @@
         <v>9</v>
       </c>
       <c r="K93" s="29" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
       <c r="N93" s="27" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="9:15">
@@ -4176,12 +4449,12 @@
         <v>10</v>
       </c>
       <c r="K94" s="29" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="L94" s="29"/>
       <c r="M94" s="29"/>
       <c r="N94" s="27" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="9:15">
@@ -4190,12 +4463,12 @@
         <v>11</v>
       </c>
       <c r="K95" s="29" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
       <c r="N95" s="27" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="9:15">
@@ -4207,7 +4480,7 @@
       <c r="L96" s="29"/>
       <c r="M96" s="29"/>
       <c r="N96" s="27" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4222,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CF0671-FE26-4F07-89AC-F4C1AA2B534B}">
-  <dimension ref="A2:N61"/>
+  <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4239,30 +4512,30 @@
     <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="B2" s="9" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4288,30 +4561,30 @@
         <v>4</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>4</v>
@@ -4323,16 +4596,16 @@
         <v>4</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="K4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4358,257 +4631,267 @@
         <v>4</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>4</v>
@@ -4619,22 +4902,31 @@
       <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>4</v>
@@ -4646,56 +4938,65 @@
         <v>4</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>144</v>
+        <v>93</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="K14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>4</v>
@@ -4706,48 +5007,66 @@
       <c r="H16" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="I16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>4</v>
@@ -4758,1280 +5077,1248 @@
       <c r="H18" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="I18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>172</v>
+        <v>95</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="M20" t="s">
-        <v>175</v>
-      </c>
-      <c r="N20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="2">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="K25">
-        <v>30</v>
-      </c>
-      <c r="M25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="K35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K36">
-        <v>40</v>
-      </c>
-      <c r="L36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K37">
-        <v>15</v>
-      </c>
-      <c r="L37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="M43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="4">
-        <v>6</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1">
-        <v>3</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="3">
-        <v>4</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1">
-        <v>5</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="3">
-        <v>6</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="K49">
-        <v>4</v>
-      </c>
-      <c r="L49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="3">
-        <v>8</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1">
-        <v>9</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="3">
-        <v>10</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1">
-        <v>11</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="3">
-        <v>12</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="K54">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="C55" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="K55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="C56" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="C57" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="C58" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="C59" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E59" t="s">
-        <v>299</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="K59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="C60" t="s">
-        <v>305</v>
-      </c>
-      <c r="E60" t="s">
-        <v>306</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="K60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="C61" t="s">
-        <v>305</v>
-      </c>
-      <c r="E61" t="s">
-        <v>309</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="K61">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:M2" xr:uid="{E4D578AE-695C-4359-9D47-350783991D6D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M21">
+      <sortCondition ref="E2"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="I45" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Taiyo-Yuden-UMK107AB7105KA-T_C105174.html" xr:uid="{1CCA25C6-E77E-4E7B-B027-03CF7B0B372B}"/>
-    <hyperlink ref="J45" r:id="rId2" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Taiyo-Yuden-UMK107AB7105KA-T_C105174.html" xr:uid="{994C11D2-42EC-43EC-ABEA-3E0D255279E5}"/>
-    <hyperlink ref="I5" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM188R61E106KA73D_C344022.html" xr:uid="{C0089552-96D2-4675-BAA3-A822061F09CC}"/>
-    <hyperlink ref="J5" r:id="rId4" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM188R61E106KA73D_C344022.html" xr:uid="{19BE36BF-B815-4073-9C2A-D415504A58C4}"/>
-    <hyperlink ref="I3" r:id="rId5" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0603B104M250CT_C107569.html" xr:uid="{96D3559A-64E0-4902-8646-AC6F650F9477}"/>
-    <hyperlink ref="J3" r:id="rId6" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0603B104M250CT_C107569.html" xr:uid="{A950C1C5-9B53-4A2F-B186-7E1D47F67E80}"/>
-    <hyperlink ref="I4" r:id="rId7" display="https://lcsc.com/product-detail/Solid-Polymer-Electrolytic-Capacitor_Lelon-OCV331M1DTR-1013_C250026.html" xr:uid="{F5D0F76C-298A-47D3-B6BF-BB0FFB3D3437}"/>
-    <hyperlink ref="J4" r:id="rId8" display="https://lcsc.com/product-detail/Solid-Polymer-Electrolytic-Capacitor_Lelon-OCV331M1DTR-1013_C250026.html" xr:uid="{29A4466F-D6C0-4F3D-A02E-1CC89228DE3A}"/>
-    <hyperlink ref="I6" r:id="rId9" display="https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_ZOWIE-Tech-MSCD104H_C189958.html" xr:uid="{1B18F247-6855-4A30-9375-1F96EA258804}"/>
-    <hyperlink ref="J6" r:id="rId10" display="https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_ZOWIE-Tech-MSCD104H_C189958.html" xr:uid="{F50CAE2B-1FB8-4BCD-BF1A-622E8E431942}"/>
-    <hyperlink ref="I7" r:id="rId11" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Everlight-Elec-19-217-GHC-YR1S2-3T_C72043.html" xr:uid="{0B3E5214-9452-44BE-B373-5B92F0A6C43F}"/>
-    <hyperlink ref="J7" r:id="rId12" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Everlight-Elec-19-217-GHC-YR1S2-3T_C72043.html" xr:uid="{D4CB786A-5F32-437B-B7B5-F9566C054FF5}"/>
-    <hyperlink ref="I9" r:id="rId13" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C191KRKT_C125099.html" xr:uid="{A277DD44-822F-44DC-8967-C96EAB3B2AD4}"/>
-    <hyperlink ref="J9" r:id="rId14" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C191KRKT_C125099.html" xr:uid="{1E288676-358F-4F09-8D8D-D7C18EE8BF24}"/>
-    <hyperlink ref="I47" r:id="rId15" display="https://lcsc.com/product-detail/Diodes-General-Purpose_Slkor-SLKORMICRO-Elec-SM4007PL-A7_C426570.html" xr:uid="{FA61EAAA-4596-4467-9411-63688B35BD9D}"/>
-    <hyperlink ref="J47" r:id="rId16" display="https://lcsc.com/product-detail/Diodes-General-Purpose_Slkor-SLKORMICRO-Elec-SM4007PL-A7_C426570.html" xr:uid="{B8EF6FE8-28BC-4F96-8257-86C794313DC6}"/>
-    <hyperlink ref="I14" r:id="rId17" display="https://lcsc.com/product-detail/Screw-terminal_JILN-JL124D-35002G01_C415432.html" xr:uid="{39D4C200-D9F3-4339-A4A6-7DE4F9039C28}"/>
-    <hyperlink ref="I28" r:id="rId18" display="https://lcsc.com/product-detail/Inductors-SMD_GLE-GCNR4030-220MC_C439349.html" xr:uid="{A929AE00-CB3C-40ED-ACE6-015EDD0F8142}"/>
-    <hyperlink ref="J28" r:id="rId19" display="https://lcsc.com/product-detail/Inductors-SMD_GLE-GCNR4030-220MC_C439349.html" xr:uid="{61E20006-75A8-4B97-9554-75E08D41249D}"/>
-    <hyperlink ref="I52" r:id="rId20" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_BOURNS-CR0603-FX-3301ELF_C203527.html" xr:uid="{2180710E-DE90-424E-A3DC-6D64213CBE57}"/>
-    <hyperlink ref="J52" r:id="rId21" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_BOURNS-CR0603-FX-3301ELF_C203527.html" xr:uid="{90D3CE05-199F-4EA1-94F1-E1EC8D4C7005}"/>
-    <hyperlink ref="I31" r:id="rId22" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJPA3F1001V_C441922.html" xr:uid="{2CE9CC9F-254B-47D3-8739-6B1AF70B01A7}"/>
-    <hyperlink ref="J31" r:id="rId23" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJPA3F1001V_C441922.html" xr:uid="{3CF6A9E4-A2B5-4F28-9E81-2810C7B4DA5E}"/>
-    <hyperlink ref="I30" r:id="rId24" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJ3GEYJ103V_C169849.html" xr:uid="{C88F6E48-D997-4C1A-B45D-0E1A80304A7B}"/>
-    <hyperlink ref="I33" r:id="rId25" display="https://lcsc.com/product-detail/Signal-Switches-Multiplexers-Decoders_XINLUDA-XL74LS157_C707097.html" xr:uid="{F90840E3-D203-479C-A250-17D178183B21}"/>
-    <hyperlink ref="J33" r:id="rId26" display="https://lcsc.com/product-detail/Signal-Switches-Multiplexers-Decoders_XINLUDA-XL74LS157_C707097.html" xr:uid="{F638D2A2-DF4A-4403-9950-8FC9182755CC}"/>
-    <hyperlink ref="I34" r:id="rId27" display="https://lcsc.com/product-detail/Dropout-Regulators-LDO_Microchip-Tech-TC1262-3-3VDBTR_C52507.html" xr:uid="{97219DEA-4DE2-4D80-B72D-518E85A9C984}"/>
-    <hyperlink ref="J34" r:id="rId28" display="https://lcsc.com/product-detail/Dropout-Regulators-LDO_Microchip-Tech-TC1262-3-3VDBTR_C52507.html" xr:uid="{BA53A359-24A8-43EC-A07B-2011CA6DBC20}"/>
-    <hyperlink ref="I35" r:id="rId29" display="https://lcsc.com/product-detail/Shift-Registers_Nexperia-74AHCT595D-118_C503428.html" xr:uid="{C6E5F93F-F0AA-4BD7-83CC-4F5F70557D35}"/>
-    <hyperlink ref="J35" r:id="rId30" display="https://lcsc.com/product-detail/Shift-Registers_Nexperia-74AHCT595D-118_C503428.html" xr:uid="{BD6E1B8A-CD13-4B06-B53D-2FEE0F5A5E5A}"/>
-    <hyperlink ref="I49" r:id="rId31" display="https://lcsc.com/product-detail/Relays_Omron-Electronics-G6E-134P-ST-US-DC12_C469134.html" xr:uid="{EFA4044B-EAEA-4F7A-A220-BA39A4E15CE9}"/>
-    <hyperlink ref="J49" r:id="rId32" display="https://lcsc.com/product-detail/Relays_Omron-Electronics-G6E-134P-ST-US-DC12_C469134.html" xr:uid="{5FA2FB73-4677-4AA9-B86A-08A677D1C62D}"/>
-    <hyperlink ref="J54" r:id="rId33" display="https://lcsc.com/product-detail/Darlington-transistor-array-driver_STMicroelectronics-ULN2003D1013TR_C61273.html" xr:uid="{5CF51D98-8AB8-4E82-9915-B25730C45FED}"/>
-    <hyperlink ref="I24" r:id="rId34" display="https://lcsc.com/product-detail/Card-Sockets-Connectors_HRS-Hirose-DM3AT-SF-PEJM5_C114218.html" xr:uid="{51EDCF0D-1E50-4AF6-8D38-BCFEDF0B131F}"/>
-    <hyperlink ref="J24" r:id="rId35" display="https://lcsc.com/product-detail/Card-Sockets-Connectors_HRS-Hirose-DM3AT-SF-PEJM5_C114218.html" xr:uid="{AFC712D9-006E-418A-8E61-FB743FDBF9CF}"/>
-    <hyperlink ref="I11" r:id="rId36" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_HOAUC-2685Y-112CNG1SNA01_C350303.html" xr:uid="{5ED41FCA-2D62-4C8C-A2CA-36B7F0F8B1EA}"/>
-    <hyperlink ref="J11" r:id="rId37" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_HOAUC-2685Y-112CNG1SNA01_C350303.html" xr:uid="{1BB65DA6-8F70-45D7-ADC9-31E73153A346}"/>
-    <hyperlink ref="J36" r:id="rId38" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-Female-header-1-8P-2-54mm-Straight-line_C124416.html" xr:uid="{120D961E-1337-4A68-B5D8-78D5C809202E}"/>
-    <hyperlink ref="I37" r:id="rId39" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-Female-header-1-2P-2-54mm-Straight-line_C124411.html" xr:uid="{00473F31-1536-4EF6-B88D-F04B05003259}"/>
-    <hyperlink ref="J37" r:id="rId40" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-Female-header-1-2P-2-54mm-Straight-line_C124411.html" xr:uid="{5C5F4AB7-A56B-4D9C-8DD0-AB6C3DD1A382}"/>
-    <hyperlink ref="I20" r:id="rId41" display="https://lcsc.com/product-detail/New-Arrivals_PINREX-510-80-10GB43_C390693.html" xr:uid="{ECAA16D5-B7C0-4006-AF8D-EAA603F805A8}"/>
-    <hyperlink ref="J20" r:id="rId42" display="https://lcsc.com/product-detail/New-Arrivals_PINREX-510-80-10GB43_C390693.html" xr:uid="{94E02D6B-5943-42FD-A204-8ADE9E505276}"/>
-    <hyperlink ref="I32" r:id="rId43" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-C124418_C124418.html" xr:uid="{B98456FE-8FAF-41B0-9FC8-F2307B6A0EBC}"/>
-    <hyperlink ref="J32" r:id="rId44" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-C124418_C124418.html" xr:uid="{7A591889-3641-4B21-8F90-72B2714D314A}"/>
-    <hyperlink ref="I55" r:id="rId45" display="https://lcsc.com/product-detail/Ethernet-Connectors-Modular-Connectors-RJ45-RJ11_Amphenol-ICC-RJHSE5380_C464586.html" xr:uid="{2E52DB74-83EC-476B-A2F7-5A24CA8F1D8C}"/>
-    <hyperlink ref="I25" r:id="rId46" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_JST-Sales-America-RF-H102TD-1190-LF-SN_C265320.html" xr:uid="{4769BEE3-AC9C-4237-99E5-236D34AF66AD}"/>
-    <hyperlink ref="I56" r:id="rId47" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_CJT-Changjiang-Connectors-A2541HWR-2x5P_C239356.html" xr:uid="{3DA55EE5-2E64-4035-AFFF-1173D2D34C1E}"/>
-    <hyperlink ref="I58" r:id="rId48" display="https://lcsc.com/product-detail/Shunts-Jumpers_BOOMELE-Boom-Precision-Elec-C100114_C100114.html" xr:uid="{F5944AA6-6EFB-4D49-8C41-4C3AE1679B09}"/>
-    <hyperlink ref="J58" r:id="rId49" display="https://lcsc.com/product-detail/Shunts-Jumpers_BOOMELE-Boom-Precision-Elec-C100114_C100114.html" xr:uid="{3B986909-AB08-4903-9FC2-4ED0C15097DF}"/>
-    <hyperlink ref="J25" r:id="rId50" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-Headers-Pins-2-5P-2-54mm-Straight-line_C124387.html" xr:uid="{C8C02C2D-AB0B-49A6-8D2F-B364B37C3B93}"/>
-    <hyperlink ref="I36" r:id="rId51" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-2-54mm-1-8P-Straight-Female-header_C27438.html" xr:uid="{8CFF675A-5B77-4C96-937A-D09D917A58EF}"/>
-    <hyperlink ref="J59" r:id="rId52" display="https://lcsc.com/product-detail/MOSFET_SINO-IC-SE4942B_C238652.html" xr:uid="{D06F88E7-D04C-461E-A9A7-35710799C6AB}"/>
-    <hyperlink ref="I59" r:id="rId53" display="https://lcsc.com/product-detail/MOSFET_SINO-IC-SE4942B_C238652.html" xr:uid="{A2E45643-8A56-438E-B25E-F56AE9FABC69}"/>
-    <hyperlink ref="J50" r:id="rId54" display="https://lcsc.com/product-detail/MOSFET_Shikues-IRLML2402_C475705.html" xr:uid="{91DB62E6-688E-4E69-BC8A-19787E5FD2DA}"/>
-    <hyperlink ref="I50" r:id="rId55" display="https://lcsc.com/product-detail/MOSFET_Shikues-IRLML2402_C475705.html" xr:uid="{E02A3111-64D5-4374-828F-EC596C220973}"/>
-    <hyperlink ref="J60" r:id="rId56" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJ-PA3F2000V_C254528.html" xr:uid="{CC0F8C96-DF92-411F-B776-7349513749E6}"/>
-    <hyperlink ref="I60" r:id="rId57" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJ-PA3F2000V_C254528.html" xr:uid="{EC34942D-C732-40EA-AD03-941572EC7AD9}"/>
-    <hyperlink ref="J61" r:id="rId58" display="https://lcsc.com/product-detail/Others_YAGEO-CC0603JRX7R8BB223_C327290.html" xr:uid="{09FFC90C-A61F-41A5-BA2C-DF267E89FE93}"/>
-    <hyperlink ref="I61" r:id="rId59" display="https://lcsc.com/product-detail/Others_YAGEO-CC0603JRX7R8BB223_C327290.html" xr:uid="{1A88698B-F687-40CF-8951-D318782B0AEF}"/>
+    <hyperlink ref="I5" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM188R61E106KA73D_C344022.html" xr:uid="{C0089552-96D2-4675-BAA3-A822061F09CC}"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GRM188R61E106KA73D_C344022.html" xr:uid="{19BE36BF-B815-4073-9C2A-D415504A58C4}"/>
+    <hyperlink ref="I3" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0603B104M250CT_C107569.html" xr:uid="{96D3559A-64E0-4902-8646-AC6F650F9477}"/>
+    <hyperlink ref="J3" r:id="rId4" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0603B104M250CT_C107569.html" xr:uid="{A950C1C5-9B53-4A2F-B186-7E1D47F67E80}"/>
+    <hyperlink ref="I10" r:id="rId5" display="https://lcsc.com/product-detail/Solid-Polymer-Electrolytic-Capacitor_Lelon-OCV331M1DTR-1013_C250026.html" xr:uid="{F5D0F76C-298A-47D3-B6BF-BB0FFB3D3437}"/>
+    <hyperlink ref="J10" r:id="rId6" display="https://lcsc.com/product-detail/Solid-Polymer-Electrolytic-Capacitor_Lelon-OCV331M1DTR-1013_C250026.html" xr:uid="{29A4466F-D6C0-4F3D-A02E-1CC89228DE3A}"/>
+    <hyperlink ref="I14" r:id="rId7" display="https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_ZOWIE-Tech-MSCD104H_C189958.html" xr:uid="{1B18F247-6855-4A30-9375-1F96EA258804}"/>
+    <hyperlink ref="J14" r:id="rId8" display="https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_ZOWIE-Tech-MSCD104H_C189958.html" xr:uid="{F50CAE2B-1FB8-4BCD-BF1A-622E8E431942}"/>
+    <hyperlink ref="I20" r:id="rId9" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Everlight-Elec-19-217-GHC-YR1S2-3T_C72043.html" xr:uid="{0B3E5214-9452-44BE-B373-5B92F0A6C43F}"/>
+    <hyperlink ref="J20" r:id="rId10" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Everlight-Elec-19-217-GHC-YR1S2-3T_C72043.html" xr:uid="{D4CB786A-5F32-437B-B7B5-F9566C054FF5}"/>
+    <hyperlink ref="I6" r:id="rId11" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C191KRKT_C125099.html" xr:uid="{A277DD44-822F-44DC-8967-C96EAB3B2AD4}"/>
+    <hyperlink ref="J6" r:id="rId12" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C191KRKT_C125099.html" xr:uid="{1E288676-358F-4F09-8D8D-D7C18EE8BF24}"/>
+    <hyperlink ref="I16" r:id="rId13" display="https://lcsc.com/product-detail/Screw-terminal_JILN-JL124D-35002G01_C415432.html" xr:uid="{39D4C200-D9F3-4339-A4A6-7DE4F9039C28}"/>
+    <hyperlink ref="I8" r:id="rId14" display="https://lcsc.com/product-detail/Inductors-SMD_GLE-GCNR4030-220MC_C439349.html" xr:uid="{A929AE00-CB3C-40ED-ACE6-015EDD0F8142}"/>
+    <hyperlink ref="J8" r:id="rId15" display="https://lcsc.com/product-detail/Inductors-SMD_GLE-GCNR4030-220MC_C439349.html" xr:uid="{61E20006-75A8-4B97-9554-75E08D41249D}"/>
+    <hyperlink ref="I7" r:id="rId16" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJPA3F1001V_C441922.html" xr:uid="{2CE9CC9F-254B-47D3-8739-6B1AF70B01A7}"/>
+    <hyperlink ref="J7" r:id="rId17" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJPA3F1001V_C441922.html" xr:uid="{3CF6A9E4-A2B5-4F28-9E81-2810C7B4DA5E}"/>
+    <hyperlink ref="I4" r:id="rId18" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJ3GEYJ103V_C169849.html" xr:uid="{C88F6E48-D997-4C1A-B45D-0E1A80304A7B}"/>
+    <hyperlink ref="I13" r:id="rId19" display="https://lcsc.com/product-detail/Signal-Switches-Multiplexers-Decoders_XINLUDA-XL74LS157_C707097.html" xr:uid="{F90840E3-D203-479C-A250-17D178183B21}"/>
+    <hyperlink ref="J13" r:id="rId20" display="https://lcsc.com/product-detail/Signal-Switches-Multiplexers-Decoders_XINLUDA-XL74LS157_C707097.html" xr:uid="{F638D2A2-DF4A-4403-9950-8FC9182755CC}"/>
+    <hyperlink ref="I18" r:id="rId21" display="https://lcsc.com/product-detail/Dropout-Regulators-LDO_Microchip-Tech-TC1262-3-3VDBTR_C52507.html" xr:uid="{97219DEA-4DE2-4D80-B72D-518E85A9C984}"/>
+    <hyperlink ref="J18" r:id="rId22" display="https://lcsc.com/product-detail/Dropout-Regulators-LDO_Microchip-Tech-TC1262-3-3VDBTR_C52507.html" xr:uid="{BA53A359-24A8-43EC-A07B-2011CA6DBC20}"/>
+    <hyperlink ref="I12" r:id="rId23" display="https://lcsc.com/product-detail/Shift-Registers_Nexperia-74AHCT595D-118_C503428.html" xr:uid="{C6E5F93F-F0AA-4BD7-83CC-4F5F70557D35}"/>
+    <hyperlink ref="J12" r:id="rId24" display="https://lcsc.com/product-detail/Shift-Registers_Nexperia-74AHCT595D-118_C503428.html" xr:uid="{BD6E1B8A-CD13-4B06-B53D-2FEE0F5A5E5A}"/>
+    <hyperlink ref="I17" r:id="rId25" display="https://lcsc.com/product-detail/Card-Sockets-Connectors_HRS-Hirose-DM3AT-SF-PEJM5_C114218.html" xr:uid="{51EDCF0D-1E50-4AF6-8D38-BCFEDF0B131F}"/>
+    <hyperlink ref="J17" r:id="rId26" display="https://lcsc.com/product-detail/Card-Sockets-Connectors_HRS-Hirose-DM3AT-SF-PEJM5_C114218.html" xr:uid="{AFC712D9-006E-418A-8E61-FB743FDBF9CF}"/>
+    <hyperlink ref="I15" r:id="rId27" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-C124418_C124418.html" xr:uid="{B98456FE-8FAF-41B0-9FC8-F2307B6A0EBC}"/>
+    <hyperlink ref="J15" r:id="rId28" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-C124418_C124418.html" xr:uid="{7A591889-3641-4B21-8F90-72B2714D314A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B019C195-3E7A-4EF2-BB4B-1128AF09E9D2}">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" t="s">
+        <v>350</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" t="s">
+        <v>365</v>
+      </c>
+      <c r="G17" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" t="s">
+        <v>384</v>
+      </c>
+      <c r="G19" t="s">
+        <v>385</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G22" t="s">
+        <v>396</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" t="s">
+        <v>303</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>323</v>
+      </c>
+      <c r="E27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28" t="s">
+        <v>391</v>
+      </c>
+      <c r="G28" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31" t="s">
+        <v>326</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" t="s">
+        <v>377</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>410</v>
+      </c>
+      <c r="E33" t="s">
+        <v>411</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35" t="s">
+        <v>413</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" t="s">
+        <v>361</v>
+      </c>
+      <c r="G36" t="s">
+        <v>362</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" t="s">
+        <v>400</v>
+      </c>
+      <c r="E37" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" t="s">
+        <v>402</v>
+      </c>
+      <c r="G37" t="s">
+        <v>403</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" t="s">
+        <v>313</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>428</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" t="s">
+        <v>405</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>406</v>
+      </c>
+      <c r="D40" t="s">
+        <v>407</v>
+      </c>
+      <c r="E40" t="s">
+        <v>408</v>
+      </c>
+      <c r="F40" t="s">
+        <v>409</v>
+      </c>
+      <c r="G40" t="s">
+        <v>406</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" t="s">
+        <v>402</v>
+      </c>
+      <c r="G41" t="s">
+        <v>403</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>380</v>
+      </c>
+      <c r="E42" t="s">
+        <v>381</v>
+      </c>
+      <c r="F42" t="s">
+        <v>382</v>
+      </c>
+      <c r="G42" t="s">
+        <v>383</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>300</v>
+      </c>
+      <c r="E43" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" t="s">
+        <v>303</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>430</v>
+      </c>
+      <c r="B44" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" t="s">
+        <v>429</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62">
+        <f>16*6</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="E64">
+        <f>35*5</f>
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H43" xr:uid="{3662AB80-4748-42AE-B75E-56E05A30817A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_XFCN-PM254V-12-10P-H85_C492399.html" xr:uid="{E0CD0062-D2A4-40F3-BC8E-9CE0F129DAFA}"/>
+    <hyperlink ref="F14" r:id="rId2" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_XFCN-PM254V-11-02-H85_C541849.html" xr:uid="{03ECFD13-98FD-4FC1-93B1-7021A20DEC51}"/>
+    <hyperlink ref="F13" r:id="rId3" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_CJT-Changjiang-Connectors-A2541HWV-12P_C225509.html" xr:uid="{F9FC40FB-1944-4A13-B4CE-6BB658720268}"/>
+    <hyperlink ref="F21" r:id="rId4" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_CJT-Changjiang-Connectors-A2541WR-2x5P_C239336.html" xr:uid="{4C2326F1-1A0A-4D41-96FD-2A1BE21B95D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192ADD7D-D55E-4CB1-B608-DE63AF189E80}">
   <dimension ref="B1:C10"/>
   <sheetViews>
@@ -6053,10 +6340,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -6137,14 +6424,527 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDEC5E0-5FF0-4FCF-B471-4DD68D399C1F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="M2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Taiyo-Yuden-UMK107AB7105KA-T_C105174.html" xr:uid="{1CCA25C6-E77E-4E7B-B027-03CF7B0B372B}"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Taiyo-Yuden-UMK107AB7105KA-T_C105174.html" xr:uid="{994C11D2-42EC-43EC-ABEA-3E0D255279E5}"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://lcsc.com/product-detail/Diodes-General-Purpose_Slkor-SLKORMICRO-Elec-SM4007PL-A7_C426570.html" xr:uid="{FA61EAAA-4596-4467-9411-63688B35BD9D}"/>
+    <hyperlink ref="J6" r:id="rId4" display="https://lcsc.com/product-detail/Diodes-General-Purpose_Slkor-SLKORMICRO-Elec-SM4007PL-A7_C426570.html" xr:uid="{B8EF6FE8-28BC-4F96-8257-86C794313DC6}"/>
+    <hyperlink ref="I11" r:id="rId5" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_BOURNS-CR0603-FX-3301ELF_C203527.html" xr:uid="{2180710E-DE90-424E-A3DC-6D64213CBE57}"/>
+    <hyperlink ref="J11" r:id="rId6" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_BOURNS-CR0603-FX-3301ELF_C203527.html" xr:uid="{90D3CE05-199F-4EA1-94F1-E1EC8D4C7005}"/>
+    <hyperlink ref="I8" r:id="rId7" display="https://lcsc.com/product-detail/Relays_Omron-Electronics-G6E-134P-ST-US-DC12_C469134.html" xr:uid="{EFA4044B-EAEA-4F7A-A220-BA39A4E15CE9}"/>
+    <hyperlink ref="J8" r:id="rId8" display="https://lcsc.com/product-detail/Relays_Omron-Electronics-G6E-134P-ST-US-DC12_C469134.html" xr:uid="{5FA2FB73-4677-4AA9-B86A-08A677D1C62D}"/>
+    <hyperlink ref="J13" r:id="rId9" display="https://lcsc.com/product-detail/Darlington-transistor-array-driver_STMicroelectronics-ULN2003D1013TR_C61273.html" xr:uid="{5CF51D98-8AB8-4E82-9915-B25730C45FED}"/>
+    <hyperlink ref="I14" r:id="rId10" display="https://lcsc.com/product-detail/Ethernet-Connectors-Modular-Connectors-RJ45-RJ11_Amphenol-ICC-RJHSE5380_C464586.html" xr:uid="{2E52DB74-83EC-476B-A2F7-5A24CA8F1D8C}"/>
+    <hyperlink ref="I15" r:id="rId11" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_CJT-Changjiang-Connectors-A2541HWR-2x5P_C239356.html" xr:uid="{3DA55EE5-2E64-4035-AFFF-1173D2D34C1E}"/>
+    <hyperlink ref="I17" r:id="rId12" display="https://lcsc.com/product-detail/Shunts-Jumpers_BOOMELE-Boom-Precision-Elec-C100114_C100114.html" xr:uid="{F5944AA6-6EFB-4D49-8C41-4C3AE1679B09}"/>
+    <hyperlink ref="J17" r:id="rId13" display="https://lcsc.com/product-detail/Shunts-Jumpers_BOOMELE-Boom-Precision-Elec-C100114_C100114.html" xr:uid="{3B986909-AB08-4903-9FC2-4ED0C15097DF}"/>
+    <hyperlink ref="J18" r:id="rId14" display="https://lcsc.com/product-detail/MOSFET_SINO-IC-SE4942B_C238652.html" xr:uid="{D06F88E7-D04C-461E-A9A7-35710799C6AB}"/>
+    <hyperlink ref="I18" r:id="rId15" display="https://lcsc.com/product-detail/MOSFET_SINO-IC-SE4942B_C238652.html" xr:uid="{A2E45643-8A56-438E-B25E-F56AE9FABC69}"/>
+    <hyperlink ref="J9" r:id="rId16" display="https://lcsc.com/product-detail/MOSFET_Shikues-IRLML2402_C475705.html" xr:uid="{91DB62E6-688E-4E69-BC8A-19787E5FD2DA}"/>
+    <hyperlink ref="I9" r:id="rId17" display="https://lcsc.com/product-detail/MOSFET_Shikues-IRLML2402_C475705.html" xr:uid="{E02A3111-64D5-4374-828F-EC596C220973}"/>
+    <hyperlink ref="J19" r:id="rId18" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJ-PA3F2000V_C254528.html" xr:uid="{CC0F8C96-DF92-411F-B776-7349513749E6}"/>
+    <hyperlink ref="I19" r:id="rId19" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJ-PA3F2000V_C254528.html" xr:uid="{EC34942D-C732-40EA-AD03-941572EC7AD9}"/>
+    <hyperlink ref="J20" r:id="rId20" display="https://lcsc.com/product-detail/Others_YAGEO-CC0603JRX7R8BB223_C327290.html" xr:uid="{09FFC90C-A61F-41A5-BA2C-DF267E89FE93}"/>
+    <hyperlink ref="I20" r:id="rId21" display="https://lcsc.com/product-detail/Others_YAGEO-CC0603JRX7R8BB223_C327290.html" xr:uid="{1A88698B-F687-40CF-8951-D318782B0AEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Hardware/Main Board/BOM LCSC.xlsx
+++ b/Hardware/Main Board/BOM LCSC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma Board\Hardware\Main Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma-Board\Firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF0FA4-8E4E-4FF2-B147-8B9EBA0814FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B373BE00-2BBF-4B7F-9E70-8789C4E5D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="8775" windowWidth="35940" windowHeight="25485" activeTab="2" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectors" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="448">
   <si>
     <t>Package</t>
   </si>
@@ -633,9 +633,6 @@
     <t>Go</t>
   </si>
   <si>
-    <t>G4 Dwell or GRBL hold pin pulse high pulse from Torch to Grbl</t>
-  </si>
-  <si>
     <t>Handover</t>
   </si>
   <si>
@@ -645,9 +642,6 @@
     <t>TorchReady</t>
   </si>
   <si>
-    <t>Pulse to Grbl to Go</t>
-  </si>
-  <si>
     <t>Climit   36</t>
   </si>
   <si>
@@ -1351,6 +1345,60 @@
   </si>
   <si>
     <t>Optocoupler</t>
+  </si>
+  <si>
+    <t>GPIO 2</t>
+  </si>
+  <si>
+    <t>GPIO 25</t>
+  </si>
+  <si>
+    <t>GPIO 39</t>
+  </si>
+  <si>
+    <t>B Limit</t>
+  </si>
+  <si>
+    <t>GPIO 36</t>
+  </si>
+  <si>
+    <t>C Limit</t>
+  </si>
+  <si>
+    <t>GPIO 14</t>
+  </si>
+  <si>
+    <t>GPIO 13</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>J1-J4 Juper</t>
+  </si>
+  <si>
+    <t>G4 Dwell or GRBL hold pin pulse low pulse from Torch to Grbl</t>
+  </si>
+  <si>
+    <t>Low pulse</t>
+  </si>
+  <si>
+    <t>Pulse low to Grbl to Go</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Macro 0</t>
+  </si>
+  <si>
+    <t>Macro1</t>
+  </si>
+  <si>
+    <t>Macro 2</t>
   </si>
 </sst>
 </file>
@@ -3030,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C39F3-7594-4535-810B-0496FC455A11}">
   <dimension ref="B1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3102,16 +3150,16 @@
         <v>161</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -3203,7 +3251,7 @@
         <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -3264,13 +3312,13 @@
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="C12" t="s">
         <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E12">
         <v>33</v>
@@ -3279,7 +3327,7 @@
         <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>442</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>191</v>
@@ -3328,10 +3376,10 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
         <v>194</v>
-      </c>
-      <c r="C14" t="s">
-        <v>195</v>
       </c>
       <c r="E14">
         <v>14</v>
@@ -3353,19 +3401,22 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" t="s">
         <v>196</v>
       </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="G15" t="s">
+        <v>442</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
@@ -3379,10 +3430,10 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J16" s="20">
         <v>1</v>
@@ -3399,7 +3450,7 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="20">
@@ -3435,7 +3486,7 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -3459,7 +3510,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -3479,7 +3530,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="20">
@@ -3511,7 +3562,7 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>191</v>
@@ -3540,7 +3591,7 @@
     </row>
     <row r="25" spans="2:15">
       <c r="I25" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J25" s="20">
         <v>1</v>
@@ -3585,14 +3636,14 @@
         <v>4</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O28" s="17"/>
     </row>
@@ -3643,12 +3694,12 @@
         <v>8</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O32" s="17"/>
     </row>
@@ -3658,14 +3709,14 @@
         <v>9</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O33" s="17"/>
     </row>
@@ -3680,7 +3731,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O34" s="17"/>
     </row>
@@ -3732,7 +3783,7 @@
     </row>
     <row r="39" spans="9:15">
       <c r="I39" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J39" s="22">
         <v>1</v>
@@ -3751,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
@@ -3777,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
@@ -3803,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
@@ -3829,7 +3880,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
@@ -3842,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
@@ -3855,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
@@ -3873,7 +3924,7 @@
     </row>
     <row r="50" spans="9:15">
       <c r="I50" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J50" s="24">
         <v>1</v>
@@ -3887,15 +3938,17 @@
       <c r="O50" s="17"/>
     </row>
     <row r="51" spans="9:15">
-      <c r="I51" s="23"/>
+      <c r="I51" s="23" t="s">
+        <v>439</v>
+      </c>
       <c r="J51" s="24">
         <v>2</v>
       </c>
       <c r="K51" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L51" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>219</v>
       </c>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
@@ -3923,7 +3976,7 @@
         <v>141</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
@@ -3932,10 +3985,10 @@
     <row r="54" spans="9:15">
       <c r="I54" s="23"/>
       <c r="J54" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
@@ -3953,7 +4006,7 @@
     </row>
     <row r="56" spans="9:15">
       <c r="I56" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J56" s="24">
         <v>1</v>
@@ -3985,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
@@ -3998,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
@@ -4029,13 +4082,13 @@
     </row>
     <row r="62" spans="9:15">
       <c r="I62" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J62" s="26">
         <v>1</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -4043,16 +4096,22 @@
       <c r="O62" s="17"/>
     </row>
     <row r="63" spans="9:15">
-      <c r="I63" s="25"/>
+      <c r="I63" s="25" t="s">
+        <v>438</v>
+      </c>
       <c r="J63" s="26">
         <v>2</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="L63" s="25"/>
+        <v>227</v>
+      </c>
+      <c r="L63" s="25" t="s">
+        <v>430</v>
+      </c>
       <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
+      <c r="N63" s="25" t="s">
+        <v>444</v>
+      </c>
       <c r="O63" s="17"/>
     </row>
     <row r="64" spans="9:15">
@@ -4061,11 +4120,15 @@
         <v>3</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="L64" s="25"/>
+        <v>228</v>
+      </c>
+      <c r="L64" s="25" t="s">
+        <v>431</v>
+      </c>
       <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
+      <c r="N64" s="25" t="s">
+        <v>445</v>
+      </c>
       <c r="O64" s="17"/>
     </row>
     <row r="65" spans="2:15">
@@ -4077,11 +4140,17 @@
         <v>4</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
+        <v>229</v>
+      </c>
+      <c r="L65" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="M65" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="N65" s="25" t="s">
+        <v>190</v>
+      </c>
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="2:15">
@@ -4090,11 +4159,17 @@
         <v>5</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
+        <v>230</v>
+      </c>
+      <c r="L66" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="M66" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="O66" s="17"/>
     </row>
     <row r="67" spans="2:15">
@@ -4103,11 +4178,15 @@
         <v>6</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="L67" s="25"/>
+        <v>231</v>
+      </c>
+      <c r="L67" s="25" t="s">
+        <v>436</v>
+      </c>
       <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
+      <c r="N67" s="25" t="s">
+        <v>446</v>
+      </c>
       <c r="O67" s="17"/>
     </row>
     <row r="68" spans="2:15">
@@ -4116,11 +4195,15 @@
         <v>7</v>
       </c>
       <c r="K68" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="L68" s="25"/>
+        <v>232</v>
+      </c>
+      <c r="L68" s="25" t="s">
+        <v>437</v>
+      </c>
       <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
+      <c r="N68" s="25" t="s">
+        <v>447</v>
+      </c>
       <c r="O68" s="17"/>
     </row>
     <row r="69" spans="2:15">
@@ -4129,7 +4212,7 @@
         <v>8</v>
       </c>
       <c r="K69" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
@@ -4147,7 +4230,7 @@
     </row>
     <row r="71" spans="2:15">
       <c r="I71" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J71" s="26">
         <v>1</v>
@@ -4156,7 +4239,7 @@
         <v>21</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M71" s="25"/>
       <c r="N71" s="25"/>
@@ -4168,10 +4251,10 @@
         <v>2</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L72" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M72" s="25"/>
       <c r="N72" s="25"/>
@@ -4183,10 +4266,10 @@
         <v>3</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L73" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
@@ -4198,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M74" s="25"/>
       <c r="N74" s="25"/>
@@ -4213,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
@@ -4228,10 +4311,10 @@
         <v>6</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L76" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M76" s="25"/>
       <c r="N76" s="25"/>
@@ -4243,10 +4326,10 @@
         <v>8</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L77" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M77" s="25"/>
       <c r="N77" s="25"/>
@@ -4258,10 +4341,10 @@
         <v>9</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
@@ -4269,16 +4352,16 @@
     </row>
     <row r="79" spans="2:15">
       <c r="I79" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J79" s="18">
         <v>1</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
@@ -4290,10 +4373,10 @@
         <v>2</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -4301,13 +4384,13 @@
     </row>
     <row r="81" spans="9:15">
       <c r="I81" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J81" s="15">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O81" s="17"/>
     </row>
@@ -4316,12 +4399,12 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="9:15">
       <c r="I85" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J85" s="28">
         <v>1</v>
@@ -4330,12 +4413,12 @@
       <c r="L85" s="27"/>
       <c r="M85" s="27"/>
       <c r="N85" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="9:15">
       <c r="I86" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J86" s="28">
         <v>2</v>
@@ -4356,7 +4439,7 @@
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
       <c r="N87" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="9:15">
@@ -4365,9 +4448,11 @@
         <v>4</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="L88" s="29"/>
+        <v>271</v>
+      </c>
+      <c r="L88" s="29" t="s">
+        <v>440</v>
+      </c>
       <c r="M88" s="29"/>
       <c r="N88" s="27" t="s">
         <v>169</v>
@@ -4379,12 +4464,14 @@
         <v>5</v>
       </c>
       <c r="K89" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="L89" s="29"/>
+        <v>270</v>
+      </c>
+      <c r="L89" s="29" t="s">
+        <v>440</v>
+      </c>
       <c r="M89" s="29"/>
       <c r="N89" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="9:15">
@@ -4393,12 +4480,14 @@
         <v>6</v>
       </c>
       <c r="K90" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="L90" s="29"/>
+        <v>269</v>
+      </c>
+      <c r="L90" s="29" t="s">
+        <v>440</v>
+      </c>
       <c r="M90" s="29"/>
       <c r="N90" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="9:15">
@@ -4407,12 +4496,14 @@
         <v>7</v>
       </c>
       <c r="K91" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="L91" s="29"/>
+        <v>268</v>
+      </c>
+      <c r="L91" s="29" t="s">
+        <v>440</v>
+      </c>
       <c r="M91" s="29"/>
       <c r="N91" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="9:15">
@@ -4421,12 +4512,12 @@
         <v>8</v>
       </c>
       <c r="K92" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L92" s="29"/>
       <c r="M92" s="29"/>
       <c r="N92" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="9:15">
@@ -4435,12 +4526,12 @@
         <v>9</v>
       </c>
       <c r="K93" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
       <c r="N93" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="9:15">
@@ -4449,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="K94" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L94" s="29"/>
       <c r="M94" s="29"/>
@@ -4463,7 +4554,7 @@
         <v>11</v>
       </c>
       <c r="K95" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
@@ -4480,7 +4571,7 @@
       <c r="L96" s="29"/>
       <c r="M96" s="29"/>
       <c r="N96" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +4588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CF0671-FE26-4F07-89AC-F4C1AA2B534B}">
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -5193,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B019C195-3E7A-4EF2-BB4B-1128AF09E9D2}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5211,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
@@ -5220,19 +5311,19 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" t="s">
         <v>333</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>334</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>335</v>
-      </c>
-      <c r="G1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5240,22 +5331,22 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -5263,19 +5354,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
         <v>102</v>
@@ -5289,19 +5380,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -5318,22 +5409,22 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" t="s">
         <v>356</v>
-      </c>
-      <c r="F5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G5" t="s">
-        <v>358</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -5341,22 +5432,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5367,22 +5458,22 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -5390,19 +5481,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
@@ -5416,25 +5507,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" t="s">
         <v>300</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>301</v>
-      </c>
-      <c r="F9" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" t="s">
-        <v>303</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -5442,22 +5533,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -5468,22 +5559,22 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -5494,22 +5585,22 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" t="s">
         <v>369</v>
-      </c>
-      <c r="F12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" t="s">
-        <v>371</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -5517,16 +5608,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -5534,16 +5625,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -5551,16 +5642,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -5571,22 +5662,22 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" t="s">
         <v>397</v>
-      </c>
-      <c r="D16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" t="s">
-        <v>399</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -5597,22 +5688,22 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" t="s">
         <v>363</v>
       </c>
-      <c r="D17" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>364</v>
-      </c>
-      <c r="F17" t="s">
-        <v>365</v>
-      </c>
-      <c r="G17" t="s">
-        <v>366</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -5620,19 +5711,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -5649,22 +5740,22 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5672,16 +5763,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" t="s">
         <v>339</v>
       </c>
-      <c r="B20" t="s">
-        <v>341</v>
-      </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -5689,16 +5780,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="C21" t="s">
-        <v>353</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -5709,22 +5800,22 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G22" t="s">
         <v>394</v>
-      </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" t="s">
-        <v>298</v>
-      </c>
-      <c r="F22" t="s">
-        <v>395</v>
-      </c>
-      <c r="G22" t="s">
-        <v>396</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -5732,25 +5823,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" t="s">
         <v>300</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>301</v>
-      </c>
-      <c r="F23" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" t="s">
-        <v>303</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5758,19 +5849,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -5784,25 +5875,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" t="s">
         <v>300</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>301</v>
-      </c>
-      <c r="F25" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" t="s">
-        <v>303</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -5810,19 +5901,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F26" t="s">
         <v>116</v>
@@ -5836,19 +5927,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
         <v>112</v>
@@ -5868,19 +5959,19 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" t="s">
         <v>388</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>389</v>
       </c>
-      <c r="E28" t="s">
-        <v>390</v>
-      </c>
-      <c r="F28" t="s">
-        <v>391</v>
-      </c>
       <c r="G28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -5891,22 +5982,22 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C29" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" t="s">
         <v>372</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>373</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>374</v>
-      </c>
-      <c r="F29" t="s">
-        <v>375</v>
-      </c>
-      <c r="G29" t="s">
-        <v>376</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -5914,19 +6005,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F30" t="s">
         <v>93</v>
@@ -5940,25 +6031,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" t="s">
         <v>325</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>326</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>327</v>
       </c>
-      <c r="E31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F31" t="s">
-        <v>329</v>
-      </c>
       <c r="G31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5969,22 +6060,22 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" t="s">
         <v>377</v>
       </c>
-      <c r="D32" t="s">
-        <v>318</v>
-      </c>
-      <c r="E32" t="s">
-        <v>378</v>
-      </c>
-      <c r="F32" t="s">
-        <v>379</v>
-      </c>
       <c r="G32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -6001,10 +6092,10 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F33" t="s">
         <v>100</v>
@@ -6018,19 +6109,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F34" t="s">
         <v>102</v>
@@ -6053,10 +6144,10 @@
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F35" t="s">
         <v>118</v>
@@ -6073,22 +6164,22 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" t="s">
         <v>359</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>360</v>
-      </c>
-      <c r="F36" t="s">
-        <v>361</v>
-      </c>
-      <c r="G36" t="s">
-        <v>362</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -6099,22 +6190,22 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D37" t="s">
+        <v>398</v>
+      </c>
+      <c r="E37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" t="s">
         <v>400</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>401</v>
-      </c>
-      <c r="F37" t="s">
-        <v>402</v>
-      </c>
-      <c r="G37" t="s">
-        <v>403</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -6122,19 +6213,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F38" t="s">
         <v>123</v>
@@ -6151,16 +6242,16 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C39" t="s">
         <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F39" t="s">
         <v>93</v>
@@ -6180,19 +6271,19 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
+        <v>404</v>
+      </c>
+      <c r="D40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40" t="s">
         <v>406</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>407</v>
       </c>
-      <c r="E40" t="s">
-        <v>408</v>
-      </c>
-      <c r="F40" t="s">
-        <v>409</v>
-      </c>
       <c r="G40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -6203,22 +6294,22 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
       <c r="D41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" t="s">
+        <v>399</v>
+      </c>
+      <c r="F41" t="s">
         <v>400</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>401</v>
-      </c>
-      <c r="F41" t="s">
-        <v>402</v>
-      </c>
-      <c r="G41" t="s">
-        <v>403</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -6235,16 +6326,16 @@
         <v>83</v>
       </c>
       <c r="D42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E42" t="s">
+        <v>379</v>
+      </c>
+      <c r="F42" t="s">
         <v>380</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>381</v>
-      </c>
-      <c r="F42" t="s">
-        <v>382</v>
-      </c>
-      <c r="G42" t="s">
-        <v>383</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -6252,25 +6343,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" t="s">
         <v>300</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>301</v>
-      </c>
-      <c r="F43" t="s">
-        <v>302</v>
-      </c>
-      <c r="G43" t="s">
-        <v>303</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -6278,13 +6369,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -6340,10 +6431,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -6429,7 +6520,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6680,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>4</v>
@@ -6692,10 +6783,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -6872,16 +6963,16 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="E18" t="s">
-        <v>245</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="K18">
         <v>20</v>
@@ -6889,16 +6980,16 @@
     </row>
     <row r="19" spans="3:11">
       <c r="C19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="E19" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="K19">
         <v>60</v>
@@ -6906,16 +6997,16 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="J20" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K20">
         <v>50</v>

--- a/Hardware/Main Board/BOM LCSC.xlsx
+++ b/Hardware/Main Board/BOM LCSC.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma-Board\Firmware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma-Board\Hardware\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B373BE00-2BBF-4B7F-9E70-8789C4E5D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0920821D-2F4F-4BCD-9969-3B1AF50EB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectors" sheetId="2" r:id="rId1"/>
-    <sheet name="BOM" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Torch Module" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Changes" sheetId="6" r:id="rId2"/>
+    <sheet name="test box" sheetId="7" r:id="rId3"/>
+    <sheet name="BOM" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Torch Module" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOM!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BOM!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$H$43</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Connectors!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Torch Module'!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'Torch Module'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="480">
   <si>
     <t>Package</t>
   </si>
@@ -1399,6 +1401,102 @@
   </si>
   <si>
     <t>Macro 2</t>
+  </si>
+  <si>
+    <t>Mainboard</t>
+  </si>
+  <si>
+    <t>U1 to J9</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>U1 Txd - J9 - 3</t>
+  </si>
+  <si>
+    <t>U1Rxd - J9 - 4</t>
+  </si>
+  <si>
+    <t>U1 17 - J9 - 3</t>
+  </si>
+  <si>
+    <t>U1 16 - J9 - 4</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>3.3v   -  J9 - 1</t>
+  </si>
+  <si>
+    <t>5v  -  J9 - 1</t>
+  </si>
+  <si>
+    <t>Torch Mod#3</t>
+  </si>
+  <si>
+    <t>RV1  100K</t>
+  </si>
+  <si>
+    <t>R3  33K</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>Torch control board Module 3</t>
+  </si>
+  <si>
+    <t>J15  invert 3 and 4 on silk screen</t>
+  </si>
+  <si>
+    <t>Mosfet motor driver</t>
+  </si>
+  <si>
+    <t>Source and Drain swaped on PCB board wrong foot print</t>
+  </si>
+  <si>
+    <t>Darlington Driver</t>
+  </si>
+  <si>
+    <t>ULN2002 needs 12 vto turn on Try ULN2003</t>
+  </si>
+  <si>
+    <t>Watch direction of D1</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+  </si>
+  <si>
+    <t>Change serial port to Nexion so usb serial is free</t>
+  </si>
+  <si>
+    <t>RX 16</t>
+  </si>
+  <si>
+    <t>Tx 17</t>
+  </si>
+  <si>
+    <t>pin 1 on Thc displayJ( needs to be 5v not 3.3</t>
+  </si>
+  <si>
+    <t>switch Handover from GPIO12 to13 12 is a boot pin</t>
+  </si>
+  <si>
+    <t>Rj45 for J9 we ordered has magnetics</t>
+  </si>
+  <si>
+    <t>Motor driver too RJ45</t>
+  </si>
+  <si>
+    <t>mixed up when we changed connectors</t>
   </si>
 </sst>
 </file>
@@ -2725,6 +2823,79 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>47624</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07AFE74-B9C0-427C-8216-867C4D2BD771}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3078,7 +3249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C39F3-7594-4535-810B-0496FC455A11}">
   <dimension ref="B1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
@@ -4585,6 +4756,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6E9A4-984E-47E0-AB78-3A5B51A2C28B}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="C3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>463</v>
+      </c>
+      <c r="K6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" t="s">
+        <v>462</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+      <c r="J9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="J11" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="J13" t="s">
+        <v>448</v>
+      </c>
+      <c r="K13" t="s">
+        <v>469</v>
+      </c>
+      <c r="L13" t="s">
+        <v>470</v>
+      </c>
+      <c r="M13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>468</v>
+      </c>
+      <c r="K14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L14" t="s">
+        <v>473</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="L15" t="s">
+        <v>474</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="K16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="K17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="K19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" t="s">
+        <v>478</v>
+      </c>
+      <c r="K21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63752E21-50CB-4B23-8BB5-9505E3D6C816}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="3073" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="3073" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CF0671-FE26-4F07-89AC-F4C1AA2B534B}">
   <dimension ref="A2:N20"/>
   <sheetViews>
@@ -5280,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B019C195-3E7A-4EF2-BB4B-1128AF09E9D2}">
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -6409,7 +6817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192ADD7D-D55E-4CB1-B608-DE63AF189E80}">
   <dimension ref="B1:C10"/>
   <sheetViews>
@@ -6515,7 +6923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDEC5E0-5FF0-4FCF-B471-4DD68D399C1F}">
   <dimension ref="A1:M20"/>
   <sheetViews>

--- a/Hardware/Main Board/BOM LCSC.xlsx
+++ b/Hardware/Main Board/BOM LCSC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma-Board\Hardware\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0920821D-2F4F-4BCD-9969-3B1AF50EB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826999B-05B4-4628-B08A-FF4A576BDDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
+    <workbookView xWindow="12180" yWindow="5115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectors" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="489">
   <si>
     <t>Package</t>
   </si>
@@ -1497,6 +1497,33 @@
   </si>
   <si>
     <t>mixed up when we changed connectors</t>
+  </si>
+  <si>
+    <t>Silk screen</t>
+  </si>
+  <si>
+    <t>Z Limit   to</t>
+  </si>
+  <si>
+    <t>J17 Reset</t>
+  </si>
+  <si>
+    <t>J17 Grbl Reset</t>
+  </si>
+  <si>
+    <t>J18 Reset</t>
+  </si>
+  <si>
+    <t>J18 Grbl Reset</t>
+  </si>
+  <si>
+    <t>Mod 1</t>
+  </si>
+  <si>
+    <t>Show polarity on J7 &amp;J8</t>
+  </si>
+  <si>
+    <t>Show voltages onD2,3,4,5</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2863,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>47624</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2846,7 +2873,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07AFE74-B9C0-427C-8216-867C4D2BD771}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2867,23 +2894,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4757,10 +4771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6E9A4-984E-47E0-AB78-3A5B51A2C28B}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4925,22 +4939,59 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
+    <row r="17" spans="1:11">
       <c r="K17" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="19" spans="10:11">
+    <row r="19" spans="1:11">
       <c r="K19" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="10:11">
+    <row r="21" spans="1:11">
       <c r="J21" t="s">
         <v>478</v>
       </c>
       <c r="K21" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63752E21-50CB-4B23-8BB5-9505E3D6C816}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -5692,7 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B019C195-3E7A-4EF2-BB4B-1128AF09E9D2}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/Hardware/Main Board/BOM LCSC.xlsx
+++ b/Hardware/Main Board/BOM LCSC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Plasma-Board\Hardware\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52165D3-78CD-4B9A-92D7-9BB6C2C6CD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C9C17A-1455-45F1-8031-3433F44B8127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42330" yWindow="5340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
+    <workbookView xWindow="38280" yWindow="3360" windowWidth="29040" windowHeight="15840" xr2:uid="{3758BE0A-FED1-4CE6-972E-E965A802D2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectors" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="503">
   <si>
     <t>Package</t>
   </si>
@@ -1536,13 +1536,300 @@
   </si>
   <si>
     <t>V1.2</t>
+  </si>
+  <si>
+    <t>;begin probe for ITH. THT=10.6mm</t>
+  </si>
+  <si>
+    <r>
+      <t>G21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>G91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (metric and relative)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G38.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Z-35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>F800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (probe fast from safe retract, 24mm+THT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Z12.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (fast retract 2mm+THT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G38.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Z-14.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>F400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (slow probe max -2mm -last retract)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Z13.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>F800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (fast retract to ITH, 2.5mm+THT, 150%-200% of cut height)</t>
+    </r>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <r>
+      <t>G4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>P1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (pierce delay, THC delay s/b this+1.0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>F3400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (restore feed rate and move mode)</t>
+    </r>
+  </si>
+  <si>
+    <t>;end probe ITH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,6 +1870,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1685,7 +2008,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1734,6 +2057,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3273,10 +3605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C39F3-7594-4535-810B-0496FC455A11}">
-  <dimension ref="B1:O96"/>
+  <dimension ref="B1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3297,7 +3629,7 @@
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:16">
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
       <c r="K1" s="17"/>
@@ -3306,7 +3638,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:16">
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
       <c r="K2" s="17"/>
@@ -3315,7 +3647,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:16">
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
@@ -3324,7 +3656,7 @@
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:16">
       <c r="B4" t="s">
         <v>138</v>
       </c>
@@ -3360,7 +3692,7 @@
       </c>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:16">
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
       <c r="K5" s="17"/>
@@ -3369,7 +3701,7 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:16">
       <c r="B6" t="s">
         <v>139</v>
       </c>
@@ -3382,8 +3714,11 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="2:15">
+      <c r="P6" s="31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -3398,8 +3733,11 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="2:15">
+      <c r="P7" s="32" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -3426,8 +3764,11 @@
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="P8" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" t="s">
         <v>144</v>
       </c>
@@ -3442,8 +3783,11 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="P9" s="32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" t="s">
         <v>158</v>
       </c>
@@ -3470,8 +3814,11 @@
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="P10" s="32" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" t="s">
         <v>150</v>
       </c>
@@ -3506,8 +3853,11 @@
         <v>169</v>
       </c>
       <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="P11" s="32" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" t="s">
         <v>441</v>
       </c>
@@ -3545,8 +3895,11 @@
         <v>171</v>
       </c>
       <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="P12" s="33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" t="s">
         <v>155</v>
       </c>
@@ -3570,8 +3923,11 @@
         <v>172</v>
       </c>
       <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="P13" s="32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" t="s">
         <v>193</v>
       </c>
@@ -3595,8 +3951,11 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="P14" s="32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" t="s">
         <v>443</v>
       </c>
@@ -3624,8 +3983,11 @@
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="P15" s="31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" t="s">
         <v>219</v>
       </c>
@@ -4785,7 +5147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6E9A4-984E-47E0-AB78-3A5B51A2C28B}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
